--- a/Docs/Codex_Task_Backlog-20251212.xlsx
+++ b/Docs/Codex_Task_Backlog-20251212.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\LalaLaunchPlugin\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Github\LalaLaunchPlugin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880A797A-27DC-4432-B8EF-D94B598BF54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE646E2B-DB09-42F8-B666-5343E0CB294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29865" yWindow="-7590" windowWidth="27165" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28890" yWindow="0" windowWidth="28650" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasking Order" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="288">
   <si>
     <t>ID</t>
   </si>
@@ -1199,6 +1199,70 @@
 Exposed a new Fuel.Live.TotalStopLoss SimHub property that sums pit-lane loss with concurrent fuel/tyre box timing alongside the selection-aware tyre time export.
 Documented the new property and tyre-selection behavior in the SimHub property inventories for quick reference.
 https://github.com/Lalabot77/LalaLaunchPlugin/pull/153</t>
+  </si>
+  <si>
+    <t>Live calcs</t>
+  </si>
+  <si>
+    <t>Fix tank capacity derivation &amp; MaxFuelOverride semantics</t>
+  </si>
+  <si>
+    <t>Currently, FuelCalculator.MaxFuelOverride defaults to 120 L and is treated as the authoritative tank size whenever &gt; 0, which means in a fresh session the planner ignores telemetry (maxFuel / LiveCarMaxFuel) and assumes a 120 L tank. As a result, Pit_TankSpaceAvailable, Pit_WillAdd, and all downstream fuel/exit/stop-loss numbers overestimate what can physically go into the tank for most cars. This is exactly what Codex flagged in its P1 comment.</t>
+  </si>
+  <si>
+    <t>In cars with known telemetry max fuel (e.g. GT3 55 L tank), with no user override:
+Pit_TankSpaceAvailable = max(0, telemetryMax – currentFuel).
+Pit_WillAdd is capped by that value.
+Applying a MaxFuelOverride lower than telemetry:
+Caps tank space to that lower value.
+Pit_WillAdd and exit fuel reflect that reduced tank size.
+Applying an override higher than telemetry:
+Does not allow the cap to exceed telemetry max; effective capacity remains telemetryMax.
+Existing UI behaviours for “Max Fuel override” remain sensible (slider still works), but internal logic no longer uses 120 L as a silent default in fresh sessions.
+Fuel.Live.TotalStopLoss and any other stop/exit calculations now behave realistically across multiple cars (a 55 L car will not show capacity or fuel-add times based on 120 L).</t>
+  </si>
+  <si>
+    <t>Take your P1 comment about tank space ignoring telemetry max, and implement the fix: change MaxFuelOverride so it defaults to 0 (“no override”), derive effective tank capacity primarily from telemetry (maxFuel / LiveCarMaxFuel) when available, fall back to profile max if telemetry is missing, and treat MaxFuelOverride as a clamp (cap = min(override, baseCapacity)) instead of a hard default of 120 L. Then use this effective capacity to drive Pit_TankSpaceAvailable, Pit_WillAdd, and any other fuel-add/tank-space dependent calculations. Verify with a 55 L tank car that Pit_WillAdd never exceeds (tankMax – currentFuel) with no override set, and that setting an override only reduces capacity, never increases it beyond the real tank.</t>
+  </si>
+  <si>
+    <t>Added a shared SuggestedMaxTankLiters value that keeps the detected tank size in sync with live telemetry while respecting manual overrides and updates the “Detected Max” helper text accordingly. Ensured default and reset flows seed the suggested tank size from live detection without locking it, preventing stale 120 L defaults from persisting when better data arrives. Drove pit tank space, refuel amount, and stop calculations from the suggested max tank capacity so dash-facing values match the helper text and live limits.</t>
+  </si>
+  <si>
+    <t>Rework Pit Window properties using existing WillAdd/tank capacity + MFD fuel demand; single-stop only.</t>
+  </si>
+  <si>
+    <t>We already have 2 SimHub properties for pit window open and the lap it opens, but they are out of date with the latest fuel/tank enhancements (Suggested/Detected max tank capacity, clipped WillAdd, refuel/tyre selection gating, and improved live fuel maths). Rework the Pit Window Info system so it is only shown/valid for single stop races, and so it uses the same “truth” values already used in the Fuel tab helper text and pit maths. Do NOT invent a new strategy model — reuse the existing fuel-per-lap, tank-space, and pit-request values already in the plugin.</t>
+  </si>
+  <si>
+    <t>In a single-stop scenario, pit window open/close laps respond correctly when adjusting pit fuel request and as fuel burns.
+When refuel is not selected (dpFuelFill off), pit window is inactive (Open=false, OpenLap/CloseLap=0 or clearly invalid).
+When multi-stop is required, pit window is inactive/invalid (does not mislead).
+Values match the already-trusted “Detected Max” helper tank limit and the existing WillAdd/tank space logic (no divergence between UI helper truth and dash truth).
+No regressions to Fuel tab strategy calculations, WillAdd, or TotalStopLoss.</t>
+  </si>
+  <si>
+    <t>Fuel Calcs All</t>
+  </si>
+  <si>
+    <t>Revert “Drive Time After Zero” logic regression introduced by PR156 and prevent strategy from growing during replay/live session</t>
+  </si>
+  <si>
+    <t>After PR156 (“Fix session time handling in fuel calculations”), the SimHub property Fuel.Live.DriveTimeAfterZero can grow to thousands of seconds and keeps increasing over time. This breaks the Fuel tab “Calculated Strategy” by making available race time continuously increase, causing Total Fuel Needed and Required Pit Stops to creep upward during replay/live running. Prior to PR156, the Fuel tab strategy behaved correctly and DriveTimeAfterZero was stable/realistic.
+Root cause hypothesis (must verify in code):
+FuelProjectionMath.EstimateDriveTimeAfterZero uses (sessionTime - timerZeroSessionTime) once timer zero is seen, which increases continuously as sessionTime increases.
+FuelCalcs.CalculateStrategy then adds LiveDriverExtraSecondsAfterZero to baseRaceSeconds (availableDriveSeconds), effectively extending the race length as time passes.
+This turns “after zero” into a running stopwatch and feeds it into the strategy solver.</t>
+  </si>
+  <si>
+    <t>In SimHub properties window, Fuel.Live.DriveTimeAfterZero does NOT increase continuously over time in a running replay/session (no runaway 1000s+ seconds growth).
+During replay playback, Total Fuel Needed and Required Pit Stops do not “creep” upward simply due to time passing; they only change when inputs change (pace slider, fuel per lap, race minutes, etc).
+For time-limited races, DriveTimeAfterZero remains realistic (bounded) and consistent with the previous known-good behaviour.
+No regressions to Fuel tab UI responsiveness and the “Calculated Strategy” output compared to pre-PR156.
+Add/retain SimHub log lines sufficient to verify: timer0 time, leader/driver checkered times (if applicable), computed after-zero values, and the final value used by strategy.</t>
+  </si>
+  <si>
+    <t>Updated pit fuel math to reuse the MFD’s requested add amount alongside the detected/suggested max tank capacity for tank space and WillAdd calculations.
+Reworked pit window handling to activate only for single-stop plans with refueling enabled, projecting the opening lap from requested add fuel, available tank space, and live fuel-per-lap consumption.</t>
   </si>
 </sst>
 </file>
@@ -1819,10 +1883,10 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2752,19 +2816,82 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>218</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">

--- a/Docs/Codex_Task_Backlog-20251212.xlsx
+++ b/Docs/Codex_Task_Backlog-20251212.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Github\LalaLaunchPlugin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE646E2B-DB09-42F8-B666-5343E0CB294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B745FC56-5D10-459E-A3B7-2E25C97ADF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28890" yWindow="0" windowWidth="28650" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="26325" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasking Order" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="290">
   <si>
     <t>ID</t>
   </si>
@@ -1263,6 +1263,43 @@
   <si>
     <t>Updated pit fuel math to reuse the MFD’s requested add amount alongside the detected/suggested max tank capacity for tank space and WillAdd calculations.
 Reworked pit window handling to activate only for single-stop plans with refueling enabled, projecting the opening lap from requested add fuel, available tank space, and live fuel-per-lap consumption.</t>
+  </si>
+  <si>
+    <t>Restored time-limited strategy calculations to rely on race duration only, computing laps and strategy drive time after zero within the planner while synchronizing the SimHub-facing value to the strategy result.
+Added drive-time computation that factors in leader finish timing, fractional laps, and practical caps to keep after-zero projections bounded and stable.
+Updated live fuel projection flow to mirror the strategy’s drive time after zero instead of live telemetry estimates, preventing replay-driven feedback loops.
+Testing</t>
+  </si>
+  <si>
+    <t>LALA-55: Restore Strategy-Owned Drive Time After Zero and Expose Read-Only Live Property
+Problem statement
+Recent changes introduced a regression where Drive Time After Zero is recalculated in a live loop and fed back into strategy calculations, causing unbounded growth in projected time, fuel, and pit stops. This logic previously worked correctly and must be restored.
+Required changes
+Restore Drive Time After Zero calculation exclusively inside FuelCalcs.CalculateStrategy()
+Use the previously working logic (leader finish, lapping, decimal lap handling).
+This value must be computed once per strategy pass.
+It must not depend on rolling telemetry accumulation.
+Remove Drive Time After Zero from any live projection or feedback loop
+FuelProjectionMath.EstimateDriveTimeAfterZero() must NOT influence:
+laps remaining
+total fuel needed
+pit stop count
+Telemetry-observed after-zero time may be logged, but never injected into strategy.
+Expose SimHub property as read-only
+Fuel.Live.DriveTimeAfterZero should reflect the strategy value, not a recomputed live value.
+The property must simply mirror the current strategy result.
+No changes to Fuel tab UI behaviour
+Calculated Strategy must remain stable while replay runs.
+Playing a replay must not cause:
+fuel needed to increase
+stop count to grow
+drive time after zero to climb
+Acceptance criteria
+Drive Time After Zero remains stable when replay time advances.
+Total Fuel Needed and Required Pit Stops converge and stay fixed.
+Lapping correctly limits max drive time after zero.
+SimHub property updates only when strategy inputs change (slider, fuel per lap, race length).
+No regression to previously validated Fuel tab behaviour.</t>
   </si>
 </sst>
 </file>
@@ -1883,10 +1920,10 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,7 +2908,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>218</v>
       </c>
@@ -2891,7 +2928,13 @@
         <v>286</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">

--- a/Docs/Codex_Task_Backlog-20251212.xlsx
+++ b/Docs/Codex_Task_Backlog-20251212.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Github\LalaLaunchPlugin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B745FC56-5D10-459E-A3B7-2E25C97ADF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D9C82E-C098-4543-A9AD-8F53E5BE318B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="26325" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="292">
   <si>
     <t>ID</t>
   </si>
@@ -1300,6 +1300,12 @@
 Lapping correctly limits max drive time after zero.
 SimHub property updates only when strategy inputs change (slider, fuel per lap, race length).
 No regression to previously validated Fuel tab behaviour.</t>
+  </si>
+  <si>
+    <t>LalaLaunch.Fuel.Pit.StopsRequiredToEnd</t>
+  </si>
+  <si>
+    <t>LalaLaunch.Fuel.Pit.StopsRequiredToEnd needs investigating because it shows stop required after final stop and enough fuel til end of race</t>
   </si>
 </sst>
 </file>
@@ -1920,10 +1926,10 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,9 +2943,18 @@
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>219</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">

--- a/Docs/Codex_Task_Backlog-20251212.xlsx
+++ b/Docs/Codex_Task_Backlog-20251212.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Github\LalaLaunchPlugin\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\LalaLaunchPlugin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D9C82E-C098-4543-A9AD-8F53E5BE318B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382E10A8-4F42-4033-979C-9B41A1BBF9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="26325" windowHeight="13995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasking Order" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="296">
   <si>
     <t>ID</t>
   </si>
@@ -1306,6 +1306,18 @@
   </si>
   <si>
     <t>LalaLaunch.Fuel.Pit.StopsRequiredToEnd needs investigating because it shows stop required after final stop and enough fuel til end of race</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Create a full fuel-properties technical spec</t>
+  </si>
+  <si>
+    <t>Produce a single, authoritative document that lists every fuel-related property our plugin exposes, and for each one provides: (1) unit, (2) calculation/formula, (3) input sources (SimHub telemetry properties + internal state), (4) update timing, and (5) code locations.</t>
+  </si>
+  <si>
+    <t>Document created</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1941,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,9 +2969,27 @@
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>220</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">

--- a/Docs/Codex_Task_Backlog-20251212.xlsx
+++ b/Docs/Codex_Task_Backlog-20251212.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\LalaLaunchPlugin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382E10A8-4F42-4033-979C-9B41A1BBF9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{901604C7-9458-4450-90E3-605A9627E20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Backlog!$A$1:$G$20</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="301">
   <si>
     <t>ID</t>
   </si>
@@ -1318,6 +1319,27 @@
   </si>
   <si>
     <t>Document created</t>
+  </si>
+  <si>
+    <t>Stabilise dash-facing fuel properties by enforcing gated pace inputs, filtering outliers, and adding optional smoothed variants (no behaviour regressions).</t>
+  </si>
+  <si>
+    <t>Reduce jitter/jumping in dash-facing fuel/pit properties by ensuring projection uses our gated averages (last 5 clean laps / stint avg) instead of any instantaneous sources, filtering telemetry outliers, and providing optional smoothed versions of key properties. Do NOT change the meaning of existing properties; add smoothed variants where needed.</t>
+  </si>
+  <si>
+    <t>In replay/live, key dash-facing values (laps remaining, deltas, total needed) no longer “jump” due to instantaneous lap/leader telemetry spikes.
+Leader lap time glitches (e.g. 1–5s) do not corrupt leader pace or downstream calculations.
+LiveLapsRemainingInRace uses gated pace sources whenever available (verified via log/source selection).
+Existing Fuel tab strategy and existing raw properties remain unchanged in meaning and are not destabilised.
+Smoothed properties appear in SimHub property browser and behave as expected (stable yet responsive).</t>
+  </si>
+  <si>
+    <t>As per the title and description</t>
+  </si>
+  <si>
+    <t>Enforced timed-race lap-time selection priority (stint average → last 5 → profile baseline → estimator) with gated logging and kept projections anchored to the strategy-provided after-zero allowance.
+Filtered leader lap outliers, falling back to the existing leader average when telemetry spikes occur and preventing fallback samples from polluting the rolling window.
+Added EMA-smoothed dash-facing fuel and pit properties, wiring session/pit change resets and exposing the new smoothed values alongside existing raw outputs.</t>
   </si>
 </sst>
 </file>
@@ -1938,10 +1960,10 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2960,13 +2982,16 @@
         <v>219</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>291</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2992,9 +3017,33 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>221</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">

--- a/Docs/Codex_Task_Backlog-20251212.xlsx
+++ b/Docs/Codex_Task_Backlog-20251212.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\LalaLaunchPlugin\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{901604C7-9458-4450-90E3-605A9627E20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81D5F61-AC8A-401E-A835-2DD795BE899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasking Order" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Backlog!$A$1:$G$20</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="305">
   <si>
     <t>ID</t>
   </si>
@@ -344,9 +343,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Dependent on other Task</t>
-  </si>
-  <si>
     <t>Codebase / Structure / Cleanup</t>
   </si>
   <si>
@@ -924,9 +920,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Tried to save planner data to new preset but after hitting save there is an issue where the new profile does not show in the list. When checking also on the fuel tab, the preset name does change there but also does not show in the combo box. I tried to go back to the preset tab but the tab is not loading when clicked on!</t>
   </si>
   <si>
     <t>Initial test show time counting up over multiple lapped counts which is incorrect. Will create new task.
@@ -1341,12 +1334,30 @@
 Filtered leader lap outliers, falling back to the existing leader average when telemetry spikes occur and preventing fallback samples from polluting the rolling window.
 Added EMA-smoothed dash-facing fuel and pit properties, wiring session/pit change resets and exposing the new smoothed values alongside existing raw outputs.</t>
   </si>
+  <si>
+    <t>Has Issues</t>
+  </si>
+  <si>
+    <t>Still requires testing in wet session</t>
+  </si>
+  <si>
+    <t>Waiting tests</t>
+  </si>
+  <si>
+    <t>Needs further investigation - Think I saw the Fuel Burn text box and choices look stale and not picking up new profile. Will need to test</t>
+  </si>
+  <si>
+    <t>Needs further work. I noticed that with live source selected at session start it correctly uses the profile value while live average data is mined and updated. However, it never changes the Lap time text box to live once available unless I toggle to profile then back to live. Small annoying issue that will need fixing.</t>
+  </si>
+  <si>
+    <t>This is also mentioned in LALA-38 and can be merged to that task.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,6 +1402,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1407,8 +1425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1436,10 +1453,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1456,11 +1474,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1960,10 +1982,10 @@
   <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,16 +2029,16 @@
         <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>63</v>
@@ -2048,10 +2070,10 @@
         <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>58</v>
@@ -2083,7 +2105,7 @@
         <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>62</v>
@@ -2106,16 +2128,16 @@
         <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>59</v>
@@ -2132,31 +2154,31 @@
         <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>88</v>
@@ -2188,7 +2210,7 @@
         <v>58</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>89</v>
@@ -2220,10 +2242,10 @@
         <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>93</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="180" x14ac:dyDescent="0.25">
@@ -2249,7 +2271,7 @@
         <v>89</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>61</v>
@@ -2263,28 +2285,28 @@
         <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L9" s="3"/>
     </row>
@@ -2314,13 +2336,13 @@
         <v>65</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
@@ -2340,7 +2362,7 @@
         <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>61</v>
@@ -2349,10 +2371,10 @@
         <v>73</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="285" x14ac:dyDescent="0.25">
@@ -2372,36 +2394,37 @@
         <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>204</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="405" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
@@ -2421,7 +2444,7 @@
         <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>62</v>
@@ -2430,10 +2453,13 @@
         <v>79</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
@@ -2456,16 +2482,16 @@
         <v>86</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="405" x14ac:dyDescent="0.25">
@@ -2476,22 +2502,22 @@
         <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
@@ -2505,22 +2531,22 @@
         <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
@@ -2534,28 +2560,28 @@
         <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
@@ -2569,25 +2595,28 @@
         <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>62</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="390" x14ac:dyDescent="0.25">
@@ -2607,24 +2636,27 @@
         <v>69</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>87</v>
@@ -2633,179 +2665,209 @@
         <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>58</v>
+        <v>299</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>151</v>
+      <c r="K21" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>154</v>
+      <c r="G22" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>167</v>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>169</v>
+      <c r="G24" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>173</v>
+      <c r="G25" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>177</v>
+      <c r="G26" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>181</v>
+      <c r="G27" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>184</v>
+      <c r="F28" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>92</v>
@@ -2814,204 +2876,204 @@
         <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="K32" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>61</v>
@@ -3019,241 +3081,241 @@
     </row>
     <row r="40" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
